--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 7.xlsx_with_dialog_acts.xlsx
@@ -587,12 +587,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1423,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1803,12 +1803,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2145,12 +2145,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2291,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2711,12 +2711,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
